--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6555,4 +6556,5832 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>256.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.4359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8632</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1486</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0229</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9891</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6930</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12384,4 +12385,2794 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>244.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>209.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8846</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0586</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7872</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15175,4 +15176,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>152</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15184,7 +15185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15195,17 +15196,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15215,14 +15236,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60.91</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.8389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -15231,14 +15274,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>152</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.09999999999999</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>218.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -15247,14 +15312,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.9</v>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15263,13 +15350,3261 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1967</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1266</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9829</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6133</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>152</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>66</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18503,7 +18504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18514,17 +18515,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18534,14 +18555,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.79000000000001</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.0595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -18550,14 +18593,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.91</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>174.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -18566,14 +18631,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>152</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.09999999999999</v>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -18582,14 +18669,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.9</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -18598,13 +18707,2027 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.79000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>38.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20610,7 +20611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20621,17 +20622,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20641,14 +20662,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.28</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.2180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -20657,14 +20700,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.79000000000001</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3371</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -20673,14 +20738,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.91</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -20689,14 +20776,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>152</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.09999999999999</v>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -20705,14 +20814,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.9</v>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20721,13 +20852,4739 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7742</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006541</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方成份精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.79000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>152</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>66</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600132-重庆啤酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>53.7</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>33.28</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>65.79000000000001</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>60.91</v>
+        <v>65.79000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>88.09999999999999</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="D7" t="n">
-        <v>41.9</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>66</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>38.32</v>
       </c>
     </row>
@@ -600,6 +617,4466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7151</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4490</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城消费30股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014957</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富消费成长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014958</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富消费成长股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014513</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013983</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003105</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城消费30股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014514</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003106</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006541</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方成份精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013984</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015640</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5439,7 +9916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7545,7 +12022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10863,7 +15340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13653,7 +18130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19481,7 +23958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23033,7 +27510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
